--- a/artfynd/A 39425-2023 artfynd.xlsx
+++ b/artfynd/A 39425-2023 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,6 +1487,121 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131261782</v>
+      </c>
+      <c r="B9" t="n">
+        <v>99014</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Mattsarve, Gtl</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>728130</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6370652</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Gotland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Gammelgarn</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>I-Got-3625</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Sofia Lund</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Ingrid Thomasson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 39425-2023 artfynd.xlsx
+++ b/artfynd/A 39425-2023 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY9"/>
+  <dimension ref="A1:AY8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1487,121 +1487,6 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>131261782</v>
-      </c>
-      <c r="B9" t="n">
-        <v>99014</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VU</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>220787</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Goodyera repens</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Mattsarve, Gtl</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>728130</v>
-      </c>
-      <c r="R9" t="n">
-        <v>6370652</v>
-      </c>
-      <c r="S9" t="n">
-        <v>10</v>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Gotland</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Gotland</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Gotland</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Gammelgarn</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>I-Got-3625</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2023-10-04</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>2023-10-04</t>
-        </is>
-      </c>
-      <c r="AD9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AW9" t="inlineStr">
-        <is>
-          <t>Sofia Lund</t>
-        </is>
-      </c>
-      <c r="AX9" t="inlineStr">
-        <is>
-          <t>Ingrid Thomasson</t>
-        </is>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
